--- a/Excel/InputCaseSelenium.xlsx
+++ b/Excel/InputCaseSelenium.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="65">
   <si>
     <t>Kirim Ulang Sertifikat (Belum Terima/Revisi/Hilang) Manulife</t>
   </si>
@@ -655,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,17 +709,6 @@
         <v>36</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
